--- a/doc/richforex/testcaseresult.xlsx
+++ b/doc/richforex/testcaseresult.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\Documents\GitHub\brendanlui.github.io\doc\richforex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BD8913-0B6C-4ED0-8540-1D5DF284A8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DD73D4-23A6-4C13-BE9E-CC90D986FC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F8C808-2C26-4E95-A643-FDE123528173}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="11">
   <si>
     <t>菜式編號</t>
   </si>
@@ -169,7 +177,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -181,7 +189,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA603013-3AD1-49C2-802D-AE37AE6F2A98}">
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="F270" sqref="F270"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2370,7 +2412,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
-        <v>893</v>
+        <v>281</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
@@ -2381,7 +2423,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
-        <v>1875</v>
+        <v>419</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>3</v>
@@ -2392,7 +2434,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
-        <v>1876</v>
+        <v>1286</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>3</v>
@@ -2403,32 +2445,32 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
-        <v>1877</v>
+        <v>1520</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
-        <v>1879</v>
+        <v>1527</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
-        <v>1880</v>
+        <v>1540</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>6</v>
@@ -2436,21 +2478,21 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
-        <v>1882</v>
+        <v>1541</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <v>1883</v>
+        <v>1549</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>6</v>
@@ -2458,18 +2500,18 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
-        <v>1884</v>
+        <v>2254</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
-        <v>2273</v>
+        <v>2405</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>7</v>
@@ -2480,109 +2522,109 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
-        <v>2498</v>
+        <v>2416</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
-        <v>153</v>
+        <v>2417</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
-        <v>827</v>
+        <v>2434</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
-        <v>829</v>
+        <v>2444</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
-        <v>830</v>
+        <v>1282</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <v>832</v>
+        <v>1283</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
-        <v>1801</v>
+        <v>1284</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
-        <v>1803</v>
+        <v>1285</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
-        <v>3506</v>
+        <v>284</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
-        <v>3518</v>
+        <v>2269</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>3</v>
@@ -2590,10 +2632,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
-        <v>3519</v>
+        <v>2273</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>3</v>
@@ -2601,10 +2643,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
-        <v>3520</v>
+        <v>2274</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>3</v>
@@ -2612,10 +2654,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
-        <v>3521</v>
+        <v>2276</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>3</v>
@@ -2623,10 +2665,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
-        <v>3522</v>
+        <v>2402</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>3</v>
@@ -2634,7 +2676,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
-        <v>3523</v>
+        <v>553</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>6</v>
@@ -2645,18 +2687,18 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
-        <v>3524</v>
+        <v>804</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
-        <v>3525</v>
+        <v>806</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>6</v>
@@ -2667,18 +2709,18 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
-        <v>3526</v>
+        <v>808</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
-        <v>3527</v>
+        <v>810</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>6</v>
@@ -2689,7 +2731,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
-        <v>3529</v>
+        <v>825</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>6</v>
@@ -2700,7 +2742,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
-        <v>3530</v>
+        <v>826</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>6</v>
@@ -2711,7 +2753,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <v>3531</v>
+        <v>827</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>6</v>
@@ -2722,7 +2764,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
-        <v>4023</v>
+        <v>828</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>6</v>
@@ -2733,139 +2775,139 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
-        <v>4024</v>
+        <v>829</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
-        <v>4025</v>
+        <v>830</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
-        <v>4026</v>
+        <v>831</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
-        <v>4027</v>
+        <v>833</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
-        <v>4028</v>
+        <v>836</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
-        <v>4029</v>
+        <v>838</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <v>5403</v>
+        <v>841</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
-        <v>871</v>
+        <v>903</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
-        <v>872</v>
+        <v>904</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
-        <v>873</v>
+        <v>1817</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
-        <v>874</v>
+        <v>8853</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
-        <v>881</v>
+        <v>8888</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>5</v>
@@ -2876,7 +2918,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>5</v>
@@ -2887,7 +2929,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>5</v>
@@ -2898,7 +2940,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>5</v>
@@ -2909,7 +2951,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>5</v>
@@ -2920,7 +2962,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>5</v>
@@ -2931,7 +2973,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
-        <v>1881</v>
+        <v>886</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>5</v>
@@ -2942,7 +2984,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
-        <v>1885</v>
+        <v>887</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>5</v>
@@ -2953,7 +2995,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
-        <v>1886</v>
+        <v>888</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>5</v>
@@ -2964,7 +3006,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>5</v>
@@ -2975,7 +3017,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>5</v>
@@ -2986,7 +3028,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
-        <v>3005</v>
+        <v>1886</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>5</v>
@@ -2997,10 +3039,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
-        <v>801</v>
+        <v>1887</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>6</v>
@@ -3008,62 +3050,62 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
-        <v>802</v>
+        <v>1888</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>9</v>
@@ -3074,7 +3116,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>9</v>
@@ -3085,18 +3127,18 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
-        <v>902</v>
+        <v>851</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>9</v>
@@ -3107,7 +3149,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>9</v>
@@ -3118,7 +3160,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>9</v>
@@ -3129,18 +3171,18 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
-        <v>3507</v>
+        <v>909</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>9</v>
@@ -3151,7 +3193,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
-        <v>3508</v>
+        <v>922</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>9</v>
@@ -3162,76 +3204,76 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
-        <v>281</v>
+        <v>3507</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
-        <v>419</v>
+        <v>3508</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
-        <v>1286</v>
+        <v>100</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
-        <v>1520</v>
+        <v>200</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
-        <v>1527</v>
+        <v>300</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
-        <v>1540</v>
+        <v>400</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
-        <v>2254</v>
+        <v>500</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>6</v>
@@ -3239,150 +3281,150 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
-        <v>2405</v>
+        <v>1100</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
-        <v>539</v>
+        <v>1200</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
-        <v>540</v>
+        <v>1300</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
-        <v>1281</v>
+        <v>1400</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
-        <v>1282</v>
+        <v>1500</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
-        <v>1284</v>
+        <v>2498</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
-        <v>1285</v>
+        <v>837</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
-        <v>284</v>
+        <v>3506</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
-        <v>2269</v>
+        <v>3005</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
-        <v>2402</v>
+        <v>890</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
-        <v>553</v>
+        <v>891</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
-        <v>841</v>
+        <v>893</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
-        <v>903</v>
+        <v>108</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
-        <v>8853</v>
+        <v>152</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>6</v>
@@ -3393,35 +3435,321 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
-        <v>8888</v>
+        <v>892</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
-        <v>152</v>
+        <v>1340</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="2">
+        <v>1801</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="3">
+        <v>1802</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="2">
+        <v>1803</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="3">
+        <v>3518</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="2">
+        <v>3519</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="3">
+        <v>3520</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="2">
+        <v>3521</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="3">
+        <v>3522</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="2">
+        <v>3523</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="3">
+        <v>3524</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="2">
+        <v>3525</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="3">
+        <v>3526</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="2">
+        <v>3527</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="3">
+        <v>3529</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="2">
+        <v>3530</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="3">
+        <v>3531</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="2">
+        <v>4023</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="3">
+        <v>4024</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="2">
+        <v>4025</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="3">
+        <v>4026</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="2">
+        <v>4027</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="3">
+        <v>4028</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>4029</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="3">
+        <v>5403</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>5404</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="3">
+        <v>894</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
